--- a/acciones121.xlsx
+++ b/acciones121.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="302">
   <si>
     <t>No.</t>
   </si>
@@ -76,28 +76,28 @@
     <t>A</t>
   </si>
   <si>
-    <t>21.22B</t>
-  </si>
-  <si>
-    <t>25.93</t>
-  </si>
-  <si>
-    <t>22.33</t>
-  </si>
-  <si>
-    <t>2.39</t>
-  </si>
-  <si>
-    <t>4.41</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>9.96</t>
-  </si>
-  <si>
-    <t>34.40</t>
+    <t>21.50B</t>
+  </si>
+  <si>
+    <t>26.30</t>
+  </si>
+  <si>
+    <t>22.65</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>4.47</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>10.09</t>
+  </si>
+  <si>
+    <t>34.85</t>
   </si>
   <si>
     <t>49.40%</t>
@@ -115,13 +115,13 @@
     <t>-8.20%</t>
   </si>
   <si>
-    <t>66.24</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>3,666,085</t>
+    <t>67.20</t>
+  </si>
+  <si>
+    <t>-0.39%</t>
+  </si>
+  <si>
+    <t>1,976,515</t>
   </si>
   <si>
     <t>2</t>
@@ -130,373 +130,373 @@
     <t>AA</t>
   </si>
   <si>
-    <t>6.82B</t>
-  </si>
-  <si>
-    <t>41.82</t>
-  </si>
-  <si>
-    <t>8.90</t>
-  </si>
-  <si>
-    <t>11.95</t>
+    <t>6.84B</t>
+  </si>
+  <si>
+    <t>43.02</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t>12.29</t>
   </si>
   <si>
     <t>0.53</t>
   </si>
   <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>32.90</t>
+  </si>
+  <si>
+    <t>158.50%</t>
+  </si>
+  <si>
+    <t>1.03%</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3.50%</t>
+  </si>
+  <si>
+    <t>36.70</t>
+  </si>
+  <si>
+    <t>1.41%</t>
+  </si>
+  <si>
+    <t>6,987,773</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>AAAU</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>-0.16%</t>
+  </si>
+  <si>
+    <t>7,513</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>AABA</t>
+  </si>
+  <si>
+    <t>36.41B</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>112.87</t>
+  </si>
+  <si>
+    <t>139.61</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>14004.23</t>
+  </si>
+  <si>
+    <t>7.20%</t>
+  </si>
+  <si>
+    <t>50.10%</t>
+  </si>
+  <si>
+    <t>-0.83%</t>
+  </si>
+  <si>
+    <t>-59.50%</t>
+  </si>
+  <si>
+    <t>62.19</t>
+  </si>
+  <si>
+    <t>-1.02%</t>
+  </si>
+  <si>
+    <t>5,968,642</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>AAC</t>
+  </si>
+  <si>
+    <t>168.45M</t>
+  </si>
+  <si>
+    <t>7.51</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>14.78</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>21.51%</t>
+  </si>
+  <si>
+    <t>-64.60%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>36.90%</t>
+  </si>
+  <si>
+    <t>6.87</t>
+  </si>
+  <si>
+    <t>-0.29%</t>
+  </si>
+  <si>
+    <t>138,774</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>AADR</t>
+  </si>
+  <si>
+    <t>49.91</t>
+  </si>
+  <si>
+    <t>13,923</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>15.64B</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>16.20%</t>
+  </si>
+  <si>
+    <t>20.51%</t>
+  </si>
+  <si>
+    <t>18.90%</t>
+  </si>
+  <si>
+    <t>11.89%</t>
+  </si>
+  <si>
+    <t>11.20%</t>
+  </si>
+  <si>
+    <t>33.57</t>
+  </si>
+  <si>
+    <t>0.87%</t>
+  </si>
+  <si>
+    <t>15,013,072</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>AAMC</t>
+  </si>
+  <si>
+    <t>78.92M</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>-55.70%</t>
+  </si>
+  <si>
+    <t>49.95</t>
+  </si>
+  <si>
+    <t>-4.37%</t>
+  </si>
+  <si>
+    <t>1,904</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>AAME</t>
+  </si>
+  <si>
+    <t>60.18M</t>
+  </si>
+  <si>
+    <t>128.26</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>8.02</t>
+  </si>
+  <si>
+    <t>35.40</t>
+  </si>
+  <si>
+    <t>67.00%</t>
+  </si>
+  <si>
+    <t>-0.20%</t>
+  </si>
+  <si>
+    <t>5.30%</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.43%</t>
+  </si>
+  <si>
+    <t>2,212</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>AAN</t>
+  </si>
+  <si>
+    <t>3.51B</t>
+  </si>
+  <si>
+    <t>23.10</t>
+  </si>
+  <si>
+    <t>12.66</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>37.27</t>
+  </si>
+  <si>
+    <t>14.63</t>
+  </si>
+  <si>
+    <t>13.10%</t>
+  </si>
+  <si>
+    <t>17.02%</t>
+  </si>
+  <si>
+    <t>-0.90%</t>
+  </si>
+  <si>
+    <t>12.00%</t>
+  </si>
+  <si>
+    <t>8.90%</t>
+  </si>
+  <si>
+    <t>50.46</t>
+  </si>
+  <si>
+    <t>-2.25%</t>
+  </si>
+  <si>
+    <t>740,217</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>AAOI</t>
+  </si>
+  <si>
+    <t>438.00M</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
     <t>1.32</t>
   </si>
   <si>
-    <t>6.26</t>
-  </si>
-  <si>
-    <t>32.78</t>
-  </si>
-  <si>
-    <t>158.50%</t>
-  </si>
-  <si>
-    <t>-0.02%</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>3.50%</t>
-  </si>
-  <si>
-    <t>35.67</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>2,846,361</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>AAAU</t>
-  </si>
-  <si>
-    <t>12.20</t>
-  </si>
-  <si>
-    <t>-0.25%</t>
-  </si>
-  <si>
-    <t>20,347</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>AABA</t>
-  </si>
-  <si>
-    <t>37.92B</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>145.42</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>14586.28</t>
-  </si>
-  <si>
-    <t>50.10%</t>
-  </si>
-  <si>
-    <t>-0.83%</t>
-  </si>
-  <si>
-    <t>-59.50%</t>
-  </si>
-  <si>
-    <t>61.98</t>
-  </si>
-  <si>
-    <t>3.42%</t>
-  </si>
-  <si>
-    <t>6,631,477</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>AAC</t>
-  </si>
-  <si>
-    <t>171.69M</t>
-  </si>
-  <si>
-    <t>7.56</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>15.06</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>21.51%</t>
-  </si>
-  <si>
-    <t>-64.60%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
-    <t>36.90%</t>
-  </si>
-  <si>
-    <t>6.92</t>
-  </si>
-  <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>168,469</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>AADR</t>
-  </si>
-  <si>
-    <t>48.71</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>25,445</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>14.81B</t>
-  </si>
-  <si>
-    <t>5.99</t>
-  </si>
-  <si>
-    <t>5.47</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>6.78</t>
-  </si>
-  <si>
-    <t>16.20%</t>
-  </si>
-  <si>
-    <t>21.88%</t>
-  </si>
-  <si>
-    <t>18.90%</t>
-  </si>
-  <si>
-    <t>11.89%</t>
-  </si>
-  <si>
-    <t>11.20%</t>
-  </si>
-  <si>
-    <t>30.91</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>12,850,088</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>AAMC</t>
-  </si>
-  <si>
-    <t>82.72M</t>
-  </si>
-  <si>
-    <t>5.01</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
-    <t>-55.70%</t>
-  </si>
-  <si>
-    <t>51.70</t>
-  </si>
-  <si>
-    <t>1.85%</t>
-  </si>
-  <si>
-    <t>2,811</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>AAME</t>
-  </si>
-  <si>
-    <t>55.72M</t>
-  </si>
-  <si>
-    <t>119.57</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>7.43</t>
-  </si>
-  <si>
-    <t>32.77</t>
-  </si>
-  <si>
-    <t>67.00%</t>
-  </si>
-  <si>
-    <t>-0.20%</t>
-  </si>
-  <si>
-    <t>5.30%</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>-0.72%</t>
-  </si>
-  <si>
-    <t>18,022</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>AAN</t>
-  </si>
-  <si>
-    <t>3.44B</t>
-  </si>
-  <si>
-    <t>22.83</t>
-  </si>
-  <si>
-    <t>12.49</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>1.99</t>
-  </si>
-  <si>
-    <t>36.50</t>
-  </si>
-  <si>
-    <t>14.33</t>
-  </si>
-  <si>
-    <t>13.10%</t>
-  </si>
-  <si>
-    <t>17.13%</t>
-  </si>
-  <si>
-    <t>-0.90%</t>
-  </si>
-  <si>
-    <t>12.00%</t>
-  </si>
-  <si>
-    <t>8.90%</t>
-  </si>
-  <si>
-    <t>49.87</t>
-  </si>
-  <si>
-    <t>2.17%</t>
-  </si>
-  <si>
-    <t>520,285</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>AAOI</t>
-  </si>
-  <si>
-    <t>461.84M</t>
-  </si>
-  <si>
-    <t>15.84</t>
-  </si>
-  <si>
-    <t>9.82</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>6.06</t>
-  </si>
-  <si>
-    <t>209.93</t>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>199.09</t>
   </si>
   <si>
     <t>94.00%</t>
   </si>
   <si>
-    <t>71.11%</t>
+    <t>75.63%</t>
   </si>
   <si>
     <t>116.60%</t>
@@ -508,13 +508,13 @@
     <t>43.20%</t>
   </si>
   <si>
-    <t>22.92</t>
-  </si>
-  <si>
-    <t>4.09%</t>
-  </si>
-  <si>
-    <t>971,491</t>
+    <t>23.15</t>
+  </si>
+  <si>
+    <t>-0.94%</t>
+  </si>
+  <si>
+    <t>468,910</t>
   </si>
   <si>
     <t>12</t>
@@ -523,28 +523,28 @@
     <t>AAON</t>
   </si>
   <si>
-    <t>1.69B</t>
-  </si>
-  <si>
-    <t>40.16</t>
-  </si>
-  <si>
-    <t>22.62</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.97</t>
-  </si>
-  <si>
-    <t>7.01</t>
-  </si>
-  <si>
-    <t>69.44</t>
-  </si>
-  <si>
-    <t>584.25</t>
+    <t>1.70B</t>
+  </si>
+  <si>
+    <t>41.13</t>
+  </si>
+  <si>
+    <t>23.16</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>69.84</t>
+  </si>
+  <si>
+    <t>587.65</t>
   </si>
   <si>
     <t>-5.50%</t>
@@ -559,13 +559,13 @@
     <t>6.00%</t>
   </si>
   <si>
-    <t>31.89</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>211,641</t>
+    <t>32.66</t>
+  </si>
+  <si>
+    <t>-0.37%</t>
+  </si>
+  <si>
+    <t>129,055</t>
   </si>
   <si>
     <t>13</t>
@@ -574,34 +574,34 @@
     <t>AAP</t>
   </si>
   <si>
-    <t>12.22B</t>
-  </si>
-  <si>
-    <t>27.93</t>
-  </si>
-  <si>
-    <t>20.56</t>
-  </si>
-  <si>
-    <t>1.87</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>13.55</t>
-  </si>
-  <si>
-    <t>19.39</t>
+    <t>11.82B</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>19.83</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>18.75</t>
   </si>
   <si>
     <t>-27.80%</t>
   </si>
   <si>
-    <t>15.57%</t>
+    <t>15.80%</t>
   </si>
   <si>
     <t>-3.00%</t>
@@ -613,13 +613,13 @@
     <t>8.60%</t>
   </si>
   <si>
-    <t>165.12</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>1,096,358</t>
+    <t>159.58</t>
+  </si>
+  <si>
+    <t>-5.22%</t>
+  </si>
+  <si>
+    <t>1,959,296</t>
   </si>
   <si>
     <t>14</t>
@@ -628,49 +628,49 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>1090.47B</t>
-  </si>
-  <si>
-    <t>19.27</t>
-  </si>
-  <si>
-    <t>16.21</t>
-  </si>
-  <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>4.27</t>
-  </si>
-  <si>
-    <t>9.44</t>
-  </si>
-  <si>
-    <t>15.37</t>
-  </si>
-  <si>
-    <t>23.79</t>
+    <t>1079.89B</t>
+  </si>
+  <si>
+    <t>19.19</t>
+  </si>
+  <si>
+    <t>16.12</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>15.22</t>
+  </si>
+  <si>
+    <t>23.56</t>
   </si>
   <si>
     <t>10.80%</t>
   </si>
   <si>
-    <t>16.38%</t>
+    <t>16.47%</t>
   </si>
   <si>
     <t>7.90%</t>
   </si>
   <si>
-    <t>10.75%</t>
-  </si>
-  <si>
-    <t>222.11</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>39,446,813</t>
+    <t>10.05%</t>
+  </si>
+  <si>
+    <t>221.19</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>22,482,015</t>
   </si>
   <si>
     <t>15</t>
@@ -679,28 +679,28 @@
     <t>AAT</t>
   </si>
   <si>
-    <t>1.66B</t>
-  </si>
-  <si>
-    <t>89.10</t>
-  </si>
-  <si>
-    <t>154.17</t>
-  </si>
-  <si>
-    <t>29.70</t>
-  </si>
-  <si>
-    <t>5.04</t>
-  </si>
-  <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>32.40</t>
-  </si>
-  <si>
-    <t>7.06</t>
+    <t>1.75B</t>
+  </si>
+  <si>
+    <t>91.98</t>
+  </si>
+  <si>
+    <t>159.17</t>
+  </si>
+  <si>
+    <t>30.66</t>
+  </si>
+  <si>
+    <t>5.31</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>34.12</t>
+  </si>
+  <si>
+    <t>7.44</t>
   </si>
   <si>
     <t>-13.40%</t>
@@ -715,13 +715,13 @@
     <t>3.00%</t>
   </si>
   <si>
-    <t>35.46</t>
-  </si>
-  <si>
-    <t>-1.23%</t>
-  </si>
-  <si>
-    <t>264,265</t>
+    <t>36.61</t>
+  </si>
+  <si>
+    <t>-0.76%</t>
+  </si>
+  <si>
+    <t>105,104</t>
   </si>
   <si>
     <t>16</t>
@@ -730,13 +730,13 @@
     <t>AAU</t>
   </si>
   <si>
-    <t>54.84M</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>5.77</t>
+    <t>65.25M</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>6.94</t>
   </si>
   <si>
     <t>-11.60%</t>
@@ -745,10 +745,13 @@
     <t>20.60%</t>
   </si>
   <si>
-    <t>-7.41%</t>
-  </si>
-  <si>
-    <t>374,608</t>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>-3.30%</t>
+  </si>
+  <si>
+    <t>150,676</t>
   </si>
   <si>
     <t>17</t>
@@ -757,31 +760,31 @@
     <t>AAWW</t>
   </si>
   <si>
-    <t>1.41B</t>
-  </si>
-  <si>
-    <t>32.22</t>
-  </si>
-  <si>
-    <t>7.35</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>6.04</t>
+    <t>1.37B</t>
+  </si>
+  <si>
+    <t>32.49</t>
+  </si>
+  <si>
+    <t>7.41</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>5.85</t>
   </si>
   <si>
     <t>115.00%</t>
   </si>
   <si>
-    <t>3.64%</t>
+    <t>3.58%</t>
   </si>
   <si>
     <t>-5.70%</t>
@@ -793,13 +796,13 @@
     <t>5.60%</t>
   </si>
   <si>
-    <t>53.13</t>
-  </si>
-  <si>
-    <t>2.02%</t>
-  </si>
-  <si>
-    <t>443,162</t>
+    <t>53.58</t>
+  </si>
+  <si>
+    <t>-0.41%</t>
+  </si>
+  <si>
+    <t>183,863</t>
   </si>
   <si>
     <t>18</t>
@@ -808,13 +811,13 @@
     <t>AAXJ</t>
   </si>
   <si>
-    <t>64.98</t>
-  </si>
-  <si>
-    <t>2.72%</t>
-  </si>
-  <si>
-    <t>2,205,171</t>
+    <t>64.71</t>
+  </si>
+  <si>
+    <t>-1.25%</t>
+  </si>
+  <si>
+    <t>604,154</t>
   </si>
   <si>
     <t>19</t>
@@ -823,31 +826,34 @@
     <t>AAXN</t>
   </si>
   <si>
-    <t>116.32</t>
-  </si>
-  <si>
-    <t>86.30</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>8.93</t>
-  </si>
-  <si>
-    <t>7.28</t>
-  </si>
-  <si>
-    <t>11.04</t>
-  </si>
-  <si>
-    <t>80.95</t>
+    <t>3.43B</t>
+  </si>
+  <si>
+    <t>121.84</t>
+  </si>
+  <si>
+    <t>87.08</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>8.91</t>
+  </si>
+  <si>
+    <t>7.63</t>
+  </si>
+  <si>
+    <t>11.01</t>
+  </si>
+  <si>
+    <t>80.75</t>
   </si>
   <si>
     <t>-24.20%</t>
   </si>
   <si>
-    <t>30.90%</t>
+    <t>35.11%</t>
   </si>
   <si>
     <t>-1.90%</t>
@@ -859,13 +865,13 @@
     <t>24.50%</t>
   </si>
   <si>
-    <t>58.86</t>
-  </si>
-  <si>
-    <t>4.75%</t>
-  </si>
-  <si>
-    <t>701,724</t>
+    <t>61.65</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>521,969</t>
   </si>
   <si>
     <t>20</t>
@@ -874,40 +880,46 @@
     <t>AB</t>
   </si>
   <si>
-    <t>2.89B</t>
-  </si>
-  <si>
-    <t>10.56</t>
-  </si>
-  <si>
-    <t>10.89</t>
-  </si>
-  <si>
-    <t>10.87</t>
+    <t>2.91B</t>
+  </si>
+  <si>
+    <t>11.08</t>
+  </si>
+  <si>
+    <t>11.36</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>10.94</t>
+  </si>
+  <si>
+    <t>1.97</t>
   </si>
   <si>
     <t>10.20%</t>
   </si>
   <si>
-    <t>1.17%</t>
+    <t>1.93%</t>
   </si>
   <si>
     <t>37.10%</t>
   </si>
   <si>
-    <t>8.04%</t>
+    <t>8.29%</t>
   </si>
   <si>
     <t>26.80%</t>
   </si>
   <si>
-    <t>29.20</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>489,312</t>
+    <t>30.65</t>
+  </si>
+  <si>
+    <t>0.49%</t>
+  </si>
+  <si>
+    <t>371,274</t>
   </si>
 </sst>
 </file>
@@ -1478,19 +1490,19 @@
         <v>61</v>
       </c>
       <c r="BY1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="BZ1" t="s">
         <v>48</v>
       </c>
       <c r="CA1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CB1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CC1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CD1" t="s">
         <v>48</v>
@@ -1499,196 +1511,196 @@
         <v>48</v>
       </c>
       <c r="CF1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="CG1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="CH1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="CI1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="CJ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>72</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>84</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>86</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>87</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>88</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>48</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>90</v>
+      </c>
+      <c r="DU1" t="s">
         <v>68</v>
       </c>
-      <c r="CK1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>71</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>72</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>73</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>48</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>74</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>48</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>48</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>82</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>84</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>85</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>86</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>48</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>88</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>89</v>
-      </c>
       <c r="DV1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DW1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DX1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DY1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="DZ1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="EA1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="EB1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="EC1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="ED1" t="s">
         <v>48</v>
       </c>
       <c r="EE1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EF1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="EG1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EH1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="EI1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="EJ1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="EK1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="EL1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="EM1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="EN1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="EO1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="EP1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="EQ1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="ER1" t="s">
         <v>48</v>
@@ -1700,19 +1712,19 @@
         <v>48</v>
       </c>
       <c r="EU1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="EV1" t="s">
         <v>48</v>
       </c>
       <c r="EW1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="EX1" t="s">
         <v>48</v>
       </c>
       <c r="EY1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="EZ1" t="s">
         <v>48</v>
@@ -1727,25 +1739,25 @@
         <v>48</v>
       </c>
       <c r="FD1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="FE1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="FF1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="FG1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="FH1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="FI1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="FJ1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="FK1" t="s">
         <v>48</v>
@@ -1754,115 +1766,115 @@
         <v>48</v>
       </c>
       <c r="FM1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="FN1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="FO1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="FP1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="FQ1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="FR1" t="s">
         <v>48</v>
       </c>
       <c r="FS1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="FT1" t="s">
         <v>48</v>
       </c>
       <c r="FU1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="FV1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="FW1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="FX1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="FY1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="FZ1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="GA1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="GB1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="GC1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="GD1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="GE1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="GF1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="GG1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="GH1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="GI1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="GJ1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="GK1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="GL1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="GM1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="GN1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="GO1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="GP1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="GQ1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="GR1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="GS1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="GT1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="GU1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="GV1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="GW1" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="GX1" t="s">
         <v>156</v>
@@ -1937,7 +1949,7 @@
         <v>179</v>
       </c>
       <c r="HV1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="HW1" t="s">
         <v>180</v>
@@ -2159,73 +2171,73 @@
         <v>48</v>
       </c>
       <c r="KR1" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="KS1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="KT1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="KU1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="KV1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="KW1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="KX1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="KY1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="KZ1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="LA1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="LB1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="LC1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="LD1" t="s">
         <v>48</v>
       </c>
       <c r="LE1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="LF1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="LG1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="LH1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="LI1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="LJ1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="LK1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="LL1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="LM1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="LN1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="LO1" t="s">
         <v>48</v>
@@ -2267,91 +2279,91 @@
         <v>48</v>
       </c>
       <c r="MB1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="MC1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="MD1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ME1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="MF1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="MG1" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="MH1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="MI1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="MJ1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="MK1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="ML1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="MM1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="MN1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="MO1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="MP1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="MQ1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="MR1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="MS1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="MT1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="MU1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="MV1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="MW1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="MX1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="MY1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="MZ1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="NA1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="NB1" t="s">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="NC1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="ND1" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="NE1" t="s">
         <v>48</v>
@@ -2360,28 +2372,28 @@
         <v>48</v>
       </c>
       <c r="NG1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="NH1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="NI1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="NJ1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="NK1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="NL1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="NM1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="NN1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:378">
@@ -2566,19 +2578,19 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -2587,89 +2599,89 @@
         <v>48</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:378">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:378">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -2711,80 +2723,80 @@
         <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="R7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:378">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:378">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -2796,19 +2808,19 @@
         <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
         <v>48</v>
@@ -2823,27 +2835,27 @@
         <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:378">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
@@ -2852,119 +2864,119 @@
         <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
         <v>48</v>
       </c>
       <c r="M10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s">
         <v>48</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:378">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:378">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
         <v>156</v>
@@ -3041,7 +3053,7 @@
         <v>179</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
         <v>180</v>
@@ -3271,77 +3283,77 @@
         <v>48</v>
       </c>
       <c r="P17" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="Q17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J18" t="s">
         <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -3383,95 +3395,95 @@
         <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N20" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O20" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P20" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q20" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="G21" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
@@ -3480,28 +3492,28 @@
         <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M21" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N21" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O21" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P21" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q21" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="R21" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
